--- a/mios/valorMoneda/MONEDA/valorMoneda.xlsx
+++ b/mios/valorMoneda/MONEDA/valorMoneda.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <x:si>
     <x:t>Fecha</x:t>
   </x:si>
@@ -42,7 +42,7 @@
     <x:t>contador</x:t>
   </x:si>
   <x:si>
-    <x:t>42</x:t>
+    <x:t>47</x:t>
   </x:si>
   <x:si>
     <x:t>PVvalorUF</x:t>
@@ -640,6 +640,81 @@
   </x:si>
   <x:si>
     <x:t>1467.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28139.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>773.81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>857.41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1472.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28147.47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>782.71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>867.36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1474.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28162.42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>795.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>879.68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1466.76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28184.87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>795.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>877.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1463.79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28199.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793.49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>874.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1459.30</x:t>
   </x:si>
   <x:si>
     <x:t>CLP</x:t>
@@ -1164,7 +1239,7 @@
       <x:selection activeCell="O1" sqref="O1 O1:O1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="243.0125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="255" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="10.710938" style="4" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="12.570312" style="4" bestFit="1" customWidth="1"/>
@@ -2067,6 +2142,106 @@
       </x:c>
       <x:c r="F41" s="4" t="s">
         <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:15">
+      <x:c r="A42" s="4" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B42" s="4" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C42" s="4" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D42" s="4" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E42" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F42" s="4" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:15">
+      <x:c r="A43" s="4" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B43" s="4" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C43" s="4" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D43" s="4" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E43" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F43" s="4" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:15">
+      <x:c r="A44" s="4" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B44" s="4" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C44" s="4" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D44" s="4" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="E44" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F44" s="4" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:15">
+      <x:c r="A45" s="4" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B45" s="4" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C45" s="4" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D45" s="4" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="E45" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F45" s="4" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:15">
+      <x:c r="A46" s="4" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B46" s="4" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C46" s="4" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D46" s="4" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="E46" s="4" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="F46" s="4" t="s">
+        <x:v>232</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2106,43 +2281,43 @@
   <x:sheetData>
     <x:row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="B2" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G2" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H2" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="L2" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M2" s="4" t="s">
-        <x:v>208</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="N2" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="O2" s="4" t="s">
-        <x:v>216</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:15" x14ac:dyDescent="0.25">
